--- a/artfynd/A 2135-2023.xlsx
+++ b/artfynd/A 2135-2023.xlsx
@@ -2477,7 +2477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111239088</v>
+        <v>111239084</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>621537.7971145469</v>
+        <v>621795.5397308235</v>
       </c>
       <c r="R18" t="n">
-        <v>7214207.587012939</v>
+        <v>7214150.859849748</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111239089</v>
+        <v>111239096</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>621542.8630217231</v>
+        <v>621773.326892847</v>
       </c>
       <c r="R19" t="n">
-        <v>7214218.370793003</v>
+        <v>7214248.527226545</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111239082</v>
+        <v>111239087</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>621795.5397308235</v>
+        <v>621536.3988506936</v>
       </c>
       <c r="R20" t="n">
-        <v>7214150.859849748</v>
+        <v>7214179.606988239</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111239095</v>
+        <v>111239098</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>621715.8270385888</v>
+        <v>621736.9238461769</v>
       </c>
       <c r="R21" t="n">
-        <v>7214214.866520428</v>
+        <v>7214134.075545141</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111239087</v>
+        <v>111239095</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>621536.3988506936</v>
+        <v>621715.8270385888</v>
       </c>
       <c r="R22" t="n">
-        <v>7214179.606988239</v>
+        <v>7214214.866520428</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111239091</v>
+        <v>111239099</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>621609.2709173216</v>
+        <v>621729.9502675609</v>
       </c>
       <c r="R23" t="n">
-        <v>7214241.392385839</v>
+        <v>7214138.867176525</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111239097</v>
+        <v>111239094</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>621717.7557529514</v>
+        <v>621681.9517352714</v>
       </c>
       <c r="R24" t="n">
-        <v>7214136.675831676</v>
+        <v>7214266.364244876</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111239098</v>
+        <v>111239089</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>621736.9238461769</v>
+        <v>621542.8630217231</v>
       </c>
       <c r="R25" t="n">
-        <v>7214134.075545141</v>
+        <v>7214218.370793003</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111239096</v>
+        <v>111239091</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>621773.326892847</v>
+        <v>621609.2709173216</v>
       </c>
       <c r="R27" t="n">
-        <v>7214248.527226545</v>
+        <v>7214241.392385839</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111239100</v>
+        <v>111239085</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>621721.5087325554</v>
+        <v>621798.3442589432</v>
       </c>
       <c r="R28" t="n">
-        <v>7214158.82971553</v>
+        <v>7214154.78243159</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111239094</v>
+        <v>111239097</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>621681.9517352714</v>
+        <v>621717.7557529514</v>
       </c>
       <c r="R29" t="n">
-        <v>7214266.364244876</v>
+        <v>7214136.675831676</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111239099</v>
+        <v>111239088</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>621729.9502675609</v>
+        <v>621537.7971145469</v>
       </c>
       <c r="R30" t="n">
-        <v>7214138.867176525</v>
+        <v>7214207.587012939</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111239085</v>
+        <v>111239093</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>621798.3442589432</v>
+        <v>621629.5775533116</v>
       </c>
       <c r="R31" t="n">
-        <v>7214154.78243159</v>
+        <v>7214231.645938496</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111239093</v>
+        <v>111239100</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>621629.5775533116</v>
+        <v>621721.5087325554</v>
       </c>
       <c r="R32" t="n">
-        <v>7214231.645938496</v>
+        <v>7214158.82971553</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
